--- a/文档/02项目计划表.xlsx
+++ b/文档/02项目计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="470" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="460" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -396,6 +396,39 @@
   </si>
   <si>
     <t>熟悉开发环境、分析技术路线</t>
+  </si>
+  <si>
+    <t>总结：完成基本环境搭建。</t>
+  </si>
+  <si>
+    <t>日期：2018.10.24 第八周周三</t>
+  </si>
+  <si>
+    <t>确定使用的通讯技术、集成环境</t>
+  </si>
+  <si>
+    <t>注册</t>
+  </si>
+  <si>
+    <t>完成android注册界面</t>
+  </si>
+  <si>
+    <t>完成android修改密码</t>
+  </si>
+  <si>
+    <t>完成android界面[修改密码]</t>
+  </si>
+  <si>
+    <t>完成android界面[注册]</t>
+  </si>
+  <si>
+    <t>完成android界面[修改个人信息]</t>
+  </si>
+  <si>
+    <t>完成android界面[设置]</t>
+  </si>
+  <si>
+    <t>总结：搭建基本环境。</t>
   </si>
 </sst>
 </file>
@@ -749,7 +782,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -764,7 +799,9 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -773,7 +810,9 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -782,7 +821,9 @@
       <bottom style="medium">
         <color theme="4" tint="0.499980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -797,7 +838,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -812,7 +855,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -823,7 +868,9 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -832,7 +879,9 @@
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -847,7 +896,9 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -862,7 +913,9 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1374,10 +1427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J84" sqref="J84"/>
+    <sheetView topLeftCell="A55" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
@@ -2172,7 +2225,9 @@
       <c r="B73" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C73" s="3"/>
+      <c r="C73" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D73" s="3"/>
     </row>
     <row r="74" spans="1:4">
@@ -2182,7 +2237,9 @@
       <c r="B74" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C74" s="3"/>
+      <c r="C74" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D74" s="3"/>
     </row>
     <row r="75" spans="1:4">
@@ -2192,7 +2249,9 @@
       <c r="B75" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C75" s="3"/>
+      <c r="C75" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D75" s="3"/>
     </row>
     <row r="76" spans="1:4">
@@ -2212,7 +2271,9 @@
       <c r="B77" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C77" s="3"/>
+      <c r="C77" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4">
@@ -2222,12 +2283,14 @@
       <c r="B78" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C78" s="3"/>
+      <c r="C78" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -2239,8 +2302,104 @@
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
     </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A9:D10"/>
     <mergeCell ref="A11:D11"/>
@@ -2257,6 +2416,8 @@
     <mergeCell ref="A69:D70"/>
     <mergeCell ref="A71:D71"/>
     <mergeCell ref="A79:D80"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A89:D90"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
